--- a/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
+++ b/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livekentac-my.sharepoint.com/personal/cw734_kent_ac_uk/Documents/COMP3370 - Computing with the Cloud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{345C507D-57FB-498C-992A-B42D31110513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18A5B1D-59DB-4E2B-9414-AA79F15F8864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12645" tabRatio="592" firstSheet="11" activeTab="11" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="16380" windowHeight="15585" tabRatio="592" firstSheet="10" activeTab="11" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Systems and Abstraction" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="263">
   <si>
     <t>Item</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t>Containers</t>
-  </si>
-  <si>
-    <t>a running group of processes, isolated from other processes on the computer; in particular, they have their own file system</t>
   </si>
   <si>
     <t>A container engine runs as a normal application, on top of an operating system.
@@ -1135,9 +1132,6 @@
     <t>State machine</t>
   </si>
   <si>
-    <t>ELI5 does the trick</t>
-  </si>
-  <si>
     <t>State machines eli5:
 Imagine you have a toy robot that can do different things. This robot has different moods or "states." Sometimes it's happy, sometimes it's sad. Now, let's say there are buttons you can press to make it do different actions. Pressing the "happy" button makes it dance, and pressing the "sad" button makes it cry.
 So, in robot terms:
@@ -1192,24 +1186,6 @@
 So, Paxos is like a method where friends propose movies, vote on them, and keep proposing until they all agree on one, making sure the majority supports the final decision.</t>
   </si>
   <si>
-    <t>Paxos is confusing, but I think I maybe just about get it. Another ChatGPT explainer:
-In Paxos, if the second proposer's proposal is accepted by a majority of acceptors before the first proposer's proposal, then the system will eventually converge to a state where the second proposer's value is chosen. However, it's essential to understand the detailed steps and conditions for this to happen.
-Let's break it down:
-Prepare Phase:
-- The first proposer sends a "prepare" message to the acceptors, suggesting a value.
-- The second proposer, unaware of the first proposer's actions, may also send a "prepare" message with its own suggested value.
-Promise Phase:
-- Acceptors respond to the "prepare" messages. If they haven't promised to another proposer and have not accepted any previous value, they send a "promise" back.
-- If the second proposer's "prepare" messages reach a majority of acceptors before the first proposer's messages, they may receive promises.
-Accept Phase:
-- The second proposer, having received promises, sends an "accept" message with its proposed value.
-- If a majority of acceptors respond to this "accept" message, the value is considered accepted.
-Learning Phase:
-- Once a value is accepted by a majority, other nodes eventually learn about this accepted value, and the system converges to a consensus.
-If the second proposer's proposal manages to go through these phases and be accepted by a majority before the first proposer's proposal, then the second proposer's value will be chosen.
-It's worth noting that Paxos is designed to handle scenarios where messages can be delayed or delivered out of order. The key is that eventually, with enough communication rounds, the system reaches a consistent state where all nodes agree on a single value.</t>
-  </si>
-  <si>
     <t>File</t>
   </si>
   <si>
@@ -1254,9 +1230,6 @@
   </si>
   <si>
     <t>Linked List Strategy</t>
-  </si>
-  <si>
-    <t>An alternative to the contiguous allocatoin</t>
   </si>
   <si>
     <t>It looks kind of complicated, but it's actually pretty simple. For simplicity sake, each bit in memory can be separated into three different things: data, an address location (which leads to more data), or empty data. If you imagine it like houses. The empty data is you knocking on the door of a house and finding nothing, so that's future space for something else. The data is when you knock on the door, someone answers, and gives you data. The address location is like knocking on the door of a house, and the person answers "go over to that street for more data". They are giving you information, but really they're just telling you where the additional data is.
@@ -1415,12 +1388,36 @@
 Now, here's the thing: sometimes people decide how to group these roads, but if they don't, it's done in a random way.
 So, it's like putting roads into small groups, making sure each group is easy to handle, and if we don't say how to group them, it happens randomly. The idea is to make things easy to manage and share the work effectively.</t>
   </si>
+  <si>
+    <t>A running group of processes, isolated from other processes on the computer; in particular, they have their own file system</t>
+  </si>
+  <si>
+    <t>Another ChatGPT Explainer:
+In Paxos, if the second proposer's proposal is accepted by a majority of acceptors before the first proposer's proposal, then the system will eventually converge to a state where the second proposer's value is chosen. However, it's essential to understand the detailed steps and conditions for this to happen.
+Let's break it down:
+Prepare Phase:
+- The first proposer sends a "prepare" message to the acceptors, suggesting a value.
+- The second proposer, unaware of the first proposer's actions, may also send a "prepare" message with its own suggested value.
+Promise Phase:
+- Acceptors respond to the "prepare" messages. If they haven't promised to another proposer and have not accepted any previous value, they send a "promise" back.
+- If the second proposer's "prepare" messages reach a majority of acceptors before the first proposer's messages, they may receive promises.
+Accept Phase:
+- The second proposer, having received promises, sends an "accept" message with its proposed value.
+- If a majority of acceptors respond to this "accept" message, the value is considered accepted.
+Learning Phase:
+- Once a value is accepted by a majority, other nodes eventually learn about this accepted value, and the system converges to a consensus.
+If the second proposer's proposal manages to go through these phases and be accepted by a majority before the first proposer's proposal, then the second proposer's value will be chosen.
+It's worth noting that Paxos is designed to handle scenarios where messages can be delayed or delivered out of order. The key is that eventually, with enough communication rounds, the system reaches a consistent state where all nodes agree on a single value.</t>
+  </si>
+  <si>
+    <t>An alternative to the contiguous allocation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1658,20 +1655,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1718,20 +1715,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1778,20 +1775,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1910,13 +1907,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -1936,6 +1926,13 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1982,20 +1979,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2042,20 +2039,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2222,20 +2219,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2402,20 +2399,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2582,20 +2579,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2762,20 +2759,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3406,8 +3403,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2745441</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2565877</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>851377</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3450,8 +3447,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1529807</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2442883</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3494,8 +3491,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1989933</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1199029</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3538,8 +3535,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2061883</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>23207</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4442,7 +4439,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>466255</xdr:colOff>
+      <xdr:colOff>466254</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2429214</xdr:rowOff>
     </xdr:to>
@@ -4486,7 +4483,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>539860</xdr:colOff>
+      <xdr:colOff>539859</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>3866029</xdr:rowOff>
     </xdr:to>
@@ -4534,10 +4531,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4379992</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2409825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312817</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4580,8 +4577,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2702693</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>416693</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4632,7 +4629,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5D868CA2-3CEC-43CD-86B3-3896BEDF3016}" name="Table10" displayName="Table10" ref="A1:F7" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5D868CA2-3CEC-43CD-86B3-3896BEDF3016}" name="Table10" displayName="Table10" ref="A1:F7" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <autoFilter ref="A1:F7" xr:uid="{5D868CA2-3CEC-43CD-86B3-3896BEDF3016}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F0A0E041-4FDE-46D3-B222-27C50763E4B7}" name="Item" dataDxfId="25"/>
@@ -4647,7 +4644,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7CC241EB-A2A0-49BA-9F08-C8389CBBDD32}" name="Table11" displayName="Table11" ref="A1:F3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7CC241EB-A2A0-49BA-9F08-C8389CBBDD32}" name="Table11" displayName="Table11" ref="A1:F3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="A1:F3" xr:uid="{7CC241EB-A2A0-49BA-9F08-C8389CBBDD32}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6E257762-E689-4C18-8CAD-DDB8F7166643}" name="Item" dataDxfId="15"/>
@@ -4662,7 +4659,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{DBFD56C1-1435-462A-9879-183B8FF6E2D3}" name="Table12" displayName="Table12" ref="A1:F4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{DBFD56C1-1435-462A-9879-183B8FF6E2D3}" name="Table12" displayName="Table12" ref="A1:F4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A1:F4" xr:uid="{DBFD56C1-1435-462A-9879-183B8FF6E2D3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C96F7BF2-41FF-45F2-90E2-C059C138FE73}" name="Item" dataDxfId="5"/>
@@ -4692,7 +4689,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3F272B85-437A-48C7-A2F4-7A11D28D52FD}" name="Table3" displayName="Table3" ref="A1:F8" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" headerRowBorderDxfId="96" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3F272B85-437A-48C7-A2F4-7A11D28D52FD}" name="Table3" displayName="Table3" ref="A1:F8" totalsRowShown="0" headerRowDxfId="99" dataDxfId="97" headerRowBorderDxfId="98" tableBorderDxfId="96">
   <autoFilter ref="A1:F8" xr:uid="{3F272B85-437A-48C7-A2F4-7A11D28D52FD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{032BD85C-BECE-4492-AC73-A28294BBA061}" name="Item" dataDxfId="95"/>
@@ -4707,7 +4704,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87C304E2-D7B5-4545-AB60-E8351C08D6A2}" name="Table4" displayName="Table4" ref="A1:F5" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" headerRowBorderDxfId="86" tableBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87C304E2-D7B5-4545-AB60-E8351C08D6A2}" name="Table4" displayName="Table4" ref="A1:F5" totalsRowShown="0" headerRowDxfId="89" dataDxfId="87" headerRowBorderDxfId="88" tableBorderDxfId="86">
   <autoFilter ref="A1:F5" xr:uid="{87C304E2-D7B5-4545-AB60-E8351C08D6A2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0F0EB51D-A568-462D-B57D-A568D6C86D1F}" name="Item" dataDxfId="85"/>
@@ -4722,7 +4719,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8EE9835D-DEFC-4D3B-A0F2-5C0E4783EE9C}" name="Table5" displayName="Table5" ref="A1:F9" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" headerRowBorderDxfId="76" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8EE9835D-DEFC-4D3B-A0F2-5C0E4783EE9C}" name="Table5" displayName="Table5" ref="A1:F9" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76">
   <autoFilter ref="A1:F9" xr:uid="{8EE9835D-DEFC-4D3B-A0F2-5C0E4783EE9C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B7071CD1-AE1B-4ABA-A410-131F3D8C2D32}" name="Item" dataDxfId="75"/>
@@ -4737,7 +4734,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FF3EB64D-77EE-493B-AD4B-D10B79681C19}" name="Table6" displayName="Table6" ref="A1:F18" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowBorderDxfId="66" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FF3EB64D-77EE-493B-AD4B-D10B79681C19}" name="Table6" displayName="Table6" ref="A1:F18" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
   <autoFilter ref="A1:F18" xr:uid="{FF3EB64D-77EE-493B-AD4B-D10B79681C19}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D97B21C7-3AE3-462E-920C-BCDECC69094B}" name="Item" dataDxfId="65"/>
@@ -4752,7 +4749,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D9C57748-361C-4F67-97CB-C2E81233DD97}" name="Table7" displayName="Table7" ref="A1:F16" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" headerRowBorderDxfId="56" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D9C57748-361C-4F67-97CB-C2E81233DD97}" name="Table7" displayName="Table7" ref="A1:F16" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
   <autoFilter ref="A1:F16" xr:uid="{D9C57748-361C-4F67-97CB-C2E81233DD97}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6F9D5188-464B-4409-97E6-EC251C8FB4AB}" name="Item" dataDxfId="55"/>
@@ -4767,7 +4764,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C82ED957-E5AE-43C3-9060-A0F338E61CD8}" name="Table8" displayName="Table8" ref="A1:F5" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" headerRowBorderDxfId="46" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C82ED957-E5AE-43C3-9060-A0F338E61CD8}" name="Table8" displayName="Table8" ref="A1:F5" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
   <autoFilter ref="A1:F5" xr:uid="{C82ED957-E5AE-43C3-9060-A0F338E61CD8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BEB51674-786B-43C5-87B4-C0AD8B843B1F}" name="Item" dataDxfId="45"/>
@@ -4782,7 +4779,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{779691C1-F87C-45EC-8092-E5A99554AD7E}" name="Table9" displayName="Table9" ref="A1:F4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{779691C1-F87C-45EC-8092-E5A99554AD7E}" name="Table9" displayName="Table9" ref="A1:F4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
   <autoFilter ref="A1:F4" xr:uid="{779691C1-F87C-45EC-8092-E5A99554AD7E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{25316C8B-02E4-4705-AFCF-CEE17624794A}" name="Item" dataDxfId="35"/>
@@ -4797,9 +4794,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4837,7 +4834,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4943,7 +4940,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5085,7 +5082,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5099,14 +5096,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="1"/>
     <col min="2" max="2" width="44" style="1" customWidth="1"/>
     <col min="3" max="16384" width="23.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -5134,7 +5131,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -5145,7 +5142,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="31.5">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -5156,7 +5153,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="45">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -5180,21 +5177,21 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="108" style="1" customWidth="1"/>
+    <col min="4" max="4" width="120" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5214,76 +5211,76 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="405">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="405">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="225">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60">
-      <c r="A6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75">
-      <c r="A7" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5300,21 +5297,21 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="66" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5334,28 +5331,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="240">
+    <row r="2" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="141" customHeight="1">
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5375,11 +5372,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378791C9-6AAD-496A-BABA-0F79C9FED179}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
@@ -5391,7 +5388,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5411,43 +5408,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="195">
+    <row r="2" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="285">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="135">
-      <c r="A4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5463,11 +5460,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A84A30-A140-4AAD-86AA-21829439548A}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" customWidth="1"/>
@@ -5477,7 +5474,7 @@
     <col min="6" max="6" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5497,7 +5494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="240">
+    <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -5513,7 +5510,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -5525,7 +5522,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="270">
+    <row r="4" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -5539,7 +5536,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -5551,7 +5548,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="119.25" customHeight="1">
+    <row r="6" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -5565,7 +5562,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="105">
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -5577,7 +5574,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" ht="90">
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -5591,7 +5588,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="105">
+    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -5605,7 +5602,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="135">
+    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -5619,7 +5616,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="165">
+    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -5633,7 +5630,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -5647,7 +5644,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
@@ -5672,13 +5669,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7A0F6C-E490-47F6-8F2C-50DF714F8C72}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="63.28515625" style="1" customWidth="1"/>
@@ -5687,7 +5684,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5707,7 +5704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
@@ -5719,7 +5716,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="150">
+    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -5735,7 +5732,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="195">
+    <row r="4" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
@@ -5749,7 +5746,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="270">
+    <row r="5" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -5763,7 +5760,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="75">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
@@ -5777,7 +5774,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="120">
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -5791,7 +5788,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="135">
+    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -5818,21 +5815,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D1FD7C-1934-44B8-86D5-42EADB2BBCA9}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5852,7 +5849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="207.75" customHeight="1">
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
@@ -5868,51 +5865,51 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="198" customHeight="1">
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="96.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="93" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -5929,11 +5926,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7130233-6AF6-4BA4-B9BA-0FE2F6025445}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
@@ -5943,7 +5940,7 @@
     <col min="6" max="6" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5963,109 +5960,109 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="225">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="105">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="225">
+    <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="255">
+    <row r="6" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="105">
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="90">
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" ht="120">
+    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="15"/>
     </row>
@@ -6082,11 +6079,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E836C-434F-4798-8C29-1F49AD809155}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
@@ -6096,7 +6093,7 @@
     <col min="6" max="6" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6116,187 +6113,187 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="330">
+    <row r="3" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="150">
+    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="135">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="165">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" ht="240">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="87.75" customHeight="1">
+    <row r="9" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="104.25" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="115.5" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="96.75" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="105">
-      <c r="A13" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="198" customHeight="1">
+    <row r="14" spans="1:6" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6304,53 +6301,53 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="120">
+    <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="90">
+    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="45">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="150">
+    <row r="18" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6369,11 +6366,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC361287-B3FA-4754-8F77-810CB15EE32E}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="76" customWidth="1"/>
@@ -6383,7 +6380,7 @@
     <col min="6" max="6" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6403,202 +6400,202 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="135">
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="90">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="225">
+    <row r="12" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="165">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="108.75" customHeight="1">
+    <row r="14" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="120">
+    <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="240">
-      <c r="A16" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -6616,11 +6613,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69C5C4-3650-49F2-8C93-570D3130646B}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
@@ -6630,7 +6627,7 @@
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6650,67 +6647,67 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="210">
+    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="240">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="225">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6728,11 +6725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336B275-13AB-4CD2-BE95-FCA1A58FF0F9}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
@@ -6742,7 +6739,7 @@
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6762,53 +6759,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="315">
+    <row r="2" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="225">
-      <c r="A3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="390">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -6829,15 +6824,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100343E6CB0A2981D4D99F128FA86EBED87" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0bcc05ca3a905ebb3efc5d4250b4dd2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e149233-bc5e-4d60-a409-cb2d210f3947" xmlns:ns4="5c6232e5-8f1b-49db-befc-69ee02b309f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22fffc3254a3fc505944013e5e8027e2" ns3:_="" ns4:_="">
     <xsd:import namespace="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
@@ -7064,14 +7050,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20058456-57BA-4B0C-8896-BC01F9C02CE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20058456-57BA-4B0C-8896-BC01F9C02CE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645C5005-C549-4346-BA2F-9C9A1FB13CB7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36323BD1-AD4C-4DA1-ABBC-6DB6E5D71D89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
+    <ds:schemaRef ds:uri="5c6232e5-8f1b-49db-befc-69ee02b309f0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36323BD1-AD4C-4DA1-ABBC-6DB6E5D71D89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645C5005-C549-4346-BA2F-9C9A1FB13CB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
+++ b/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18A5B1D-59DB-4E2B-9414-AA79F15F8864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5A5E2-0ED9-4AC6-A15E-715B29251D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="16380" windowHeight="15585" tabRatio="592" firstSheet="10" activeTab="11" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
+    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="592" firstSheet="9" activeTab="10" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Systems and Abstraction" sheetId="1" r:id="rId1"/>
@@ -46,8 +46,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="263">
   <si>
     <t>Item</t>
   </si>
@@ -600,14 +622,6 @@
 - Often per user charge</t>
   </si>
   <si>
-    <t>Hardware and system software is managed by the provider. This means all elements of IaaS as well as:
-- Operating system
-- Possibly container system
-- Runtime system for programming language
-- Middleware
-Usually only pay for the CPU time and memory. Hardware, operating system updates, database and file storage you don't have to worry about, but everything else you do</t>
-  </si>
-  <si>
     <t>Platform as a Service (PaaS) is a cloud computing model that provides a ready-made platform allowing developers to build, deploy, and manage applications without dealing with the complexities of underlying infrastructure. In PaaS, developers can focus on coding and application development, while the cloud service provider takes care of managing the underlying hardware, networking, storage, and other infrastructure components. PaaS offers a streamlined environment for developing and deploying applications, reducing the time and effort required for infrastructure management.</t>
   </si>
   <si>
@@ -625,12 +639,6 @@
 - Similar to IaaS
 - Charge can per instance of application
 - If you have a lot of people using your service, then PaaS is probably going to be more cost effective</t>
-  </si>
-  <si>
-    <t>Everything is managed by provider
-- Pricing is often on a per-user basis
-- No maintenance by us, and No software development by us
-- This also means that we have No control over it (e.g. provider outage, bugs, etc)</t>
   </si>
   <si>
     <t>Software as a Service (SaaS) is a cloud computing model that delivers software applications over the internet on a subscription basis. In SaaS, users can access and use software applications without the need for installation, maintenance, or management on their local devices. The software is hosted and maintained by a third-party provider, and users typically access it through a web browser. SaaS is known for its convenience, scalability, and cost-effectiveness, as users can pay for the software on a subscription or usage basis rather than purchasing and maintaining individual licenses.</t>
@@ -793,36 +801,6 @@
     <t>A distributed system is one in which components located at
 networked computers communicate and coordinate their actions
 only by passing messages.</t>
-  </si>
-  <si>
-    <r>
-      <t>Distributed systems are defined by:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- concurrency of components,
-- lack of a global clock and
-- independent failures of components.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>They consist of multiple layers</t>
-    </r>
   </si>
   <si>
     <t>A distributed system is like a team of computers working together as one. Instead of relying on a single computer, tasks and data are spread across multiple machines connected through a network. This approach improves reliability, scalability, and performance, allowing for more efficient and flexible computing. Examples include cloud computing, where data and processing are distributed across servers, and peer-to-peer networks, where individual computers collaborate in sharing resources.</t>
@@ -1237,30 +1215,6 @@
 https://www.youtube.com/watch?v=_jQhALI4ujg</t>
   </si>
   <si>
-    <t>Alright, let's dive into the idea of a linked list using a simple analogy.
-Analogy: Train Cars
-Imagine you have a toy train, and each train car is like a box that can hold something (let's call it a "value" or "item"). In a linked list:
-Train Cars (Nodes):
-- Each train car (node) can hold a special box (value) inside it.
-Connections (Links):
-- Instead of being attached side by side like a regular train, these cars are connected by magnets. Each car has a magnet at one end, and it sticks to the next car's magnet.
-First Car (Head):
-- The first car is special – it's called the "engine" or the "head" of the train. It's where the journey begins.
-- Last Car (Tail):
-The last car doesn't have a magnet at the other end; it's the end of the train. We call it the "tail."
-Adding New Cars:
-- If you want to add a new car (node) to the train, you just grab a new car and attach it to the last car's magnet. Now, the train is longer.
-Removing Cars:
-- If you want to remove a car, you just detach it. The remaining cars are still connected, and the train continues.
-Real-World Example:
-In computer science, a linked list is a data structure where each element (node) contains data and a reference (link) to the next element. It's like a chain of connected elements, allowing for dynamic and efficient storage.
-- Node: Each train car with a box inside it.
-- Link: The magnets connecting the train cars.
-- Head: The first train car.
-- Tail: The last train car.
-This linked list strategy is handy because you can easily add or remove elements without moving everything around – just like adding or removing cars from a train!</t>
-  </si>
-  <si>
     <t>Used for Unix (meaning Linux and Mac)</t>
   </si>
   <si>
@@ -1358,13 +1312,6 @@
 The framework turns these into the following tasks:
 Mapper: Takes a chunk of elements and maps each element in the chunk into a (key, value) pair list.
 Reducer: Takes a group of values (having the same key) and combines them into one value.</t>
-  </si>
-  <si>
-    <t>Alright, let's break down the map and reduce phases of MapReduce in a super simple way:
-Map Phase: Imagine you have a big box of toys, and you want to know how many toys of each type you have. You ask your friends to help. Each friend takes a handful of toys and makes a list of the types of toys they have and how many of each type. So, in the "Map" phase, your friends are like detectives looking at a part of the toy collection and writing down what they find. They work on different sections at the same time, and when they're done, you have several lists from each friend.
-Shuffle and Sort: Now, you have these lists from your friends, but they might have some duplicate toys on their lists. The "Shuffle and Sort" is like organizing all the lists together. You make sure that all the toys of the same type are grouped together, like putting all the cars in one pile, all the dolls in another, and so on. This step helps get things ready for the next phase.
-Reduce Phase: In the "Reduce" phase, you have another set of friends. Each of them takes one group of toys, like the pile of cars, and adds up the counts from all the lists. So, if your first friend found 3 cars and your second friend found 4 cars, the friend in the "Reduce" phase would say, "Okay, we have 7 cars in total." This process happens for each group of toys. In the end, you have a final list that says how many of each type of toy you have in your entire collection.
-In MapReduce, the "Map" phase is about breaking down the big problem into smaller parts, the "Shuffle and Sort" phase organizes the results, and the "Reduce" phase puts everything together to give you the final answer. It's like teamwork to solve a big puzzle!</t>
   </si>
   <si>
     <t>It's kind of a confusing thing, but another way to look at it is: what can you use it for?
@@ -1411,6 +1358,75 @@
   </si>
   <si>
     <t>An alternative to the contiguous allocation</t>
+  </si>
+  <si>
+    <t>Everything is managed by provider
+- Pricing is often on a per-user basis
+- No maintenance by us, and No software development by us
+- This also means that we have No control over it (e.g. provider outage, bugs, etc)
+All the layers are abstracted away from us. It's pay as you go. You don't see the programming language that's being used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware and system software is managed by the provider. This means all elements of IaaS as well as:
+- Operating system
+- Possibly container system
+- Runtime system for programming language
+- Middleware
+Usually only pay for the CPU time and memory. Hardware, operating system updates, database and file storage you don't have to worry about, but everything else you do
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Distributed systems are defined by:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- concurrency of components (able to handle multiple types of tasks)
+- lack of a global clock (asyncronous)
+- allows for an independent failures of components
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>They consist of multiple layers</t>
+    </r>
+  </si>
+  <si>
+    <t>Example of how the data changes from stage to stage:
+pages = [(1, "abc"), (2, "bcd"), (3, "acdef")]
+map stage::
+[(1, a), (1, b), (1, c),
+(2, b), (2, c), (2, d),
+(3, a), (3, c), (3, d), (3, e), (3, f)]
+reduce_stage = [
+a: [1, 3],
+b: [1, 2],
+c: [1, 2, 3],
+d: [2, 3],
+e: [3],
+f: [3]
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Metadata Management: The master server maintains metadata, which includes information such as file-to-chunk mappings, locations of replicas, and other essential details about the file system. When a client needs to read or write data, it first contacts the master server to obtain metadata related to the operation.
+    Chunk Location Lookup: Upon receiving a request from a client, the master server provides the client with the locations (IP addresses) of the chunk servers storing the relevant data chunks for the requested file. The client then communicates directly with these chunk servers to access the data.
+    Coordination and Control: The master server coordinates various operations within the GFS cluster, such as file creation, deletion, and replication. It ensures data consistency and integrity by managing the placement and replication of data chunks across chunk servers.
+    Fault Tolerance and Recovery: The master server plays a crucial role in fault tolerance and recovery mechanisms within GFS. It monitors the health and availability of chunk servers, detects failures, and initiates recovery processes such as chunk migration or replication to maintain data availability and system reliability.
+    Metadata Caching: To improve performance and reduce latency, clients may cache metadata obtained from the master server locally. This caching mechanism allows clients to retrieve metadata more quickly for subsequent operations without needing to contact the master server repeatedly.</t>
   </si>
 </sst>
 </file>
@@ -3720,7 +3736,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>296784</xdr:colOff>
+      <xdr:colOff>299959</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>3143250</xdr:rowOff>
     </xdr:to>
@@ -3766,7 +3782,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1562318</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>124108</xdr:rowOff>
+      <xdr:rowOff>127283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3810,7 +3826,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1030271</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:rowOff>30390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3852,9 +3868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1072289</xdr:colOff>
+      <xdr:colOff>1075464</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2871107</xdr:rowOff>
+      <xdr:rowOff>2874282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3896,7 +3912,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2313215</xdr:colOff>
+      <xdr:colOff>2316390</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>78813</xdr:rowOff>
     </xdr:to>
@@ -3940,9 +3956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2050101</xdr:colOff>
+      <xdr:colOff>2053276</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>979714</xdr:rowOff>
+      <xdr:rowOff>982889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3984,7 +4000,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1510393</xdr:colOff>
+      <xdr:colOff>1513568</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1221584</xdr:rowOff>
     </xdr:to>
@@ -4030,7 +4046,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1374323</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1460991</xdr:rowOff>
+      <xdr:rowOff>1464166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4074,7 +4090,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1619251</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>195466</xdr:rowOff>
+      <xdr:rowOff>198641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4116,9 +4132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3687537</xdr:colOff>
+      <xdr:colOff>3690712</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2465709</xdr:rowOff>
+      <xdr:rowOff>2468884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4166,8 +4182,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175000</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1898447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4209,9 +4225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
+      <xdr:colOff>585880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1306887</xdr:rowOff>
+      <xdr:rowOff>1310062</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4255,7 +4271,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>95641</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>448235</xdr:rowOff>
+      <xdr:rowOff>454585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4296,15 +4312,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>46182</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2490651</xdr:colOff>
+      <xdr:colOff>2549532</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2330823</xdr:rowOff>
+      <xdr:rowOff>2398075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4327,8 +4343,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13379825" y="4381500"/>
-          <a:ext cx="2490650" cy="2330823"/>
+          <a:off x="15251546" y="4445000"/>
+          <a:ext cx="2493825" cy="2333998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4439,9 +4455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>466254</xdr:colOff>
+      <xdr:colOff>472604</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2429214</xdr:rowOff>
+      <xdr:rowOff>2435564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4483,9 +4499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>539859</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3866029</xdr:rowOff>
+      <xdr:colOff>546209</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>246529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4531,10 +4547,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>312817</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1924811</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4567,51 +4583,71 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>416693</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073E2A71-F55C-5A8B-55B5-073ADC56B403}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15621000" y="190500"/>
-          <a:ext cx="6638925" cy="2702693"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5176,8 +5212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565796D7-D35E-40EB-B305-EFC8618B15BF}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5213,74 +5249,77 @@
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="390" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5294,9 +5333,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE19E9E-A98E-4BE2-B916-3E13EA42D882}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5305,13 +5344,13 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5331,28 +5370,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5372,8 +5414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378791C9-6AAD-496A-BABA-0F79C9FED179}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5410,41 +5452,41 @@
     </row>
     <row r="2" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5870,7 +5912,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>73</v>
@@ -6079,8 +6121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E836C-434F-4798-8C29-1F49AD809155}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6157,7 +6199,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>114</v>
       </c>
@@ -6165,56 +6207,56 @@
         <v>115</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -6223,77 +6265,77 @@
     </row>
     <row r="9" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6303,13 +6345,13 @@
     </row>
     <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -6317,13 +6359,13 @@
     </row>
     <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -6331,10 +6373,10 @@
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -6343,11 +6385,11 @@
     </row>
     <row r="18" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6366,8 +6408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC361287-B3FA-4754-8F77-810CB15EE32E}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6400,33 +6442,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -6434,22 +6476,22 @@
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6458,10 +6500,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6470,10 +6512,10 @@
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6482,38 +6524,38 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6522,10 +6564,10 @@
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6534,24 +6576,24 @@
     </row>
     <row r="12" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -6560,10 +6602,10 @@
     </row>
     <row r="14" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -6572,30 +6614,30 @@
     </row>
     <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -6613,16 +6655,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69C5C4-3650-49F2-8C93-570D3130646B}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="83.85546875" customWidth="1"/>
+    <col min="4" max="4" width="114.140625" customWidth="1"/>
     <col min="5" max="5" width="51.140625" customWidth="1"/>
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
@@ -6649,65 +6691,65 @@
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6725,8 +6767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336B275-13AB-4CD2-BE95-FCA1A58FF0F9}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6761,49 +6803,49 @@
     </row>
     <row r="2" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -6816,11 +6858,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6e149233-bc5e-4d60-a409-cb2d210f3947" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7051,20 +7094,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6e149233-bc5e-4d60-a409-cb2d210f3947" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20058456-57BA-4B0C-8896-BC01F9C02CE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645C5005-C549-4346-BA2F-9C9A1FB13CB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7089,9 +7129,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645C5005-C549-4346-BA2F-9C9A1FB13CB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20058456-57BA-4B0C-8896-BC01F9C02CE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
+++ b/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5A5E2-0ED9-4AC6-A15E-715B29251D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB128B12-F256-4F01-B725-B2E3B4F65862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="592" firstSheet="9" activeTab="10" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="592" activeTab="4" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Systems and Abstraction" sheetId="1" r:id="rId1"/>
@@ -1433,7 +1433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3643,7 +3643,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>447652</xdr:colOff>
+      <xdr:colOff>447653</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>302559</xdr:rowOff>
     </xdr:to>
@@ -5132,14 +5132,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="1"/>
     <col min="2" max="2" width="44" style="1" customWidth="1"/>
     <col min="3" max="16384" width="23.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -5178,7 +5178,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="31.5">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -5212,11 +5212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565796D7-D35E-40EB-B305-EFC8618B15BF}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="1" customWidth="1"/>
@@ -5227,7 +5227,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="120">
       <c r="A2" s="1" t="s">
         <v>221</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="345">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="285">
       <c r="A4" s="1" t="s">
         <v>228</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="285">
       <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60">
       <c r="A6" s="1" t="s">
         <v>235</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75">
       <c r="A7" s="1" t="s">
         <v>237</v>
       </c>
@@ -5335,11 +5335,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE19E9E-A98E-4BE2-B916-3E13EA42D882}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
@@ -5350,7 +5350,7 @@
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="180">
       <c r="A2" s="1" t="s">
         <v>239</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="90">
       <c r="A3" s="1" t="s">
         <v>243</v>
       </c>
@@ -5418,7 +5418,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
@@ -5430,7 +5430,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="195">
       <c r="A2" s="1" t="s">
         <v>245</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="285">
       <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="135">
       <c r="A4" s="1" t="s">
         <v>253</v>
       </c>
@@ -5506,7 +5506,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" customWidth="1"/>
@@ -5516,7 +5516,7 @@
     <col min="6" max="6" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="240">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="270">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -5578,7 +5578,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="119.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="105">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="90">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="105">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -5644,7 +5644,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="135">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="165">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
@@ -5711,11 +5711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7A0F6C-E490-47F6-8F2C-50DF714F8C72}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" style="1" customWidth="1"/>
@@ -5726,7 +5726,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="75">
       <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="135">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="195">
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="270">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
@@ -5816,7 +5816,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="120">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="135">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -5861,7 +5861,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
@@ -5871,7 +5871,7 @@
     <col min="6" max="6" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="135">
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="90">
       <c r="A3" s="6" t="s">
         <v>72</v>
       </c>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="6" t="s">
         <v>76</v>
       </c>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>80</v>
       </c>
@@ -5968,21 +5968,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7130233-6AF6-4BA4-B9BA-0FE2F6025445}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="120">
       <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="225">
       <c r="A3" s="6" t="s">
         <v>88</v>
       </c>
@@ -6034,7 +6034,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="90">
       <c r="A4" s="6" t="s">
         <v>91</v>
       </c>
@@ -6046,7 +6046,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="225">
       <c r="A5" s="15" t="s">
         <v>93</v>
       </c>
@@ -6058,7 +6058,7 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="255">
       <c r="A6" s="15" t="s">
         <v>95</v>
       </c>
@@ -6070,7 +6070,7 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="105">
       <c r="A7" s="15" t="s">
         <v>97</v>
       </c>
@@ -6082,7 +6082,7 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="90">
       <c r="A8" s="15" t="s">
         <v>99</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="120">
       <c r="A9" s="15" t="s">
         <v>101</v>
       </c>
@@ -6125,7 +6125,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
@@ -6135,7 +6135,7 @@
     <col min="6" max="6" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="90">
       <c r="A2" s="6" t="s">
         <v>104</v>
       </c>
@@ -6167,7 +6167,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="330">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -6181,7 +6181,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="150">
       <c r="A4" s="6" t="s">
         <v>109</v>
       </c>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="150">
       <c r="A5" s="6" t="s">
         <v>114</v>
       </c>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="165">
       <c r="A6" s="6" t="s">
         <v>118</v>
       </c>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="240">
       <c r="A7" s="6" t="s">
         <v>122</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="87.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>128</v>
       </c>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="104.25" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>131</v>
       </c>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="115.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>134</v>
       </c>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="96.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>137</v>
       </c>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="105">
       <c r="A13" s="6" t="s">
         <v>140</v>
       </c>
@@ -6333,7 +6333,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="198" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>143</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="120">
       <c r="A15" s="6" t="s">
         <v>144</v>
       </c>
@@ -6357,7 +6357,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="90">
       <c r="A16" s="6" t="s">
         <v>147</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45">
       <c r="A17" s="6" t="s">
         <v>150</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="150">
       <c r="A18" s="6" t="s">
         <v>152</v>
       </c>
@@ -6412,7 +6412,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="76" customWidth="1"/>
@@ -6422,7 +6422,7 @@
     <col min="6" max="6" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="165">
       <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="90">
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
@@ -6474,7 +6474,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="90">
       <c r="A4" s="1" t="s">
         <v>161</v>
       </c>
@@ -6486,7 +6486,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>163</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -6510,7 +6510,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="1" t="s">
         <v>167</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="1" t="s">
         <v>169</v>
       </c>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="1" t="s">
         <v>177</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="225">
       <c r="A12" s="1" t="s">
         <v>179</v>
       </c>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="165">
       <c r="A13" s="1" t="s">
         <v>182</v>
       </c>
@@ -6600,7 +6600,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="108.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>184</v>
       </c>
@@ -6612,7 +6612,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="120">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="240">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
@@ -6659,7 +6659,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -6669,7 +6669,7 @@
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="120">
       <c r="A2" s="1" t="s">
         <v>193</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="210">
       <c r="A3" s="1" t="s">
         <v>196</v>
       </c>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="210">
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="195">
       <c r="A5" s="1" t="s">
         <v>206</v>
       </c>
@@ -6771,7 +6771,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
@@ -6781,7 +6781,7 @@
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="300">
       <c r="A2" s="1" t="s">
         <v>210</v>
       </c>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="210">
       <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="390">
       <c r="A4" s="1" t="s">
         <v>217</v>
       </c>
@@ -6858,12 +6858,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6e149233-bc5e-4d60-a409-cb2d210f3947" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7094,17 +7093,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6e149233-bc5e-4d60-a409-cb2d210f3947" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645C5005-C549-4346-BA2F-9C9A1FB13CB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20058456-57BA-4B0C-8896-BC01F9C02CE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7129,11 +7131,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20058456-57BA-4B0C-8896-BC01F9C02CE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645C5005-C549-4346-BA2F-9C9A1FB13CB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
+++ b/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB128B12-F256-4F01-B725-B2E3B4F65862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E3B81-E01E-41E8-B1B7-54025D3D1C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="592" activeTab="4" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="592" firstSheet="2" activeTab="5" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Systems and Abstraction" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="264">
   <si>
     <t>Item</t>
   </si>
@@ -1428,12 +1428,15 @@
     Fault Tolerance and Recovery: The master server plays a crucial role in fault tolerance and recovery mechanisms within GFS. It monitors the health and availability of chunk servers, detects failures, and initiates recovery processes such as chunk migration or replication to maintain data availability and system reliability.
     Metadata Caching: To improve performance and reduce latency, clients may cache metadata obtained from the master server locally. This caching mechanism allows clients to retrieve metadata more quickly for subsequent operations without needing to contact the master server repeatedly.</t>
   </si>
+  <si>
+    <t>Examples: chatbots</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5132,14 +5135,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="1"/>
     <col min="2" max="2" width="44" style="1" customWidth="1"/>
     <col min="3" max="16384" width="23.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -5167,7 +5170,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -5178,7 +5181,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="31.5">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -5189,7 +5192,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="45">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -5216,7 +5219,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="1" customWidth="1"/>
@@ -5227,7 +5230,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>221</v>
       </c>
@@ -5255,7 +5258,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="345">
+    <row r="3" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
@@ -5272,7 +5275,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="285">
+    <row r="4" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>228</v>
       </c>
@@ -5289,7 +5292,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="285">
+    <row r="5" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>235</v>
       </c>
@@ -5314,7 +5317,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>237</v>
       </c>
@@ -5339,7 +5342,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
@@ -5350,7 +5353,7 @@
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="180">
+    <row r="2" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>239</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90">
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>243</v>
       </c>
@@ -5418,7 +5421,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
@@ -5430,7 +5433,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="195">
+    <row r="2" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>245</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="285">
+    <row r="3" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>253</v>
       </c>
@@ -5506,7 +5509,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" customWidth="1"/>
@@ -5516,7 +5519,7 @@
     <col min="6" max="6" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="240">
+    <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -5552,7 +5555,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -5564,7 +5567,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="270">
+    <row r="4" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -5578,7 +5581,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -5590,7 +5593,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="119.25" customHeight="1">
+    <row r="6" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -5604,7 +5607,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="105">
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -5616,7 +5619,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" ht="90">
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -5630,7 +5633,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="105">
+    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -5644,7 +5647,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="135">
+    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -5658,7 +5661,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="165">
+    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -5672,7 +5675,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -5686,7 +5689,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
@@ -5715,7 +5718,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" style="1" customWidth="1"/>
@@ -5726,7 +5729,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
@@ -5758,7 +5761,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="135">
+    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -5774,7 +5777,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="195">
+    <row r="4" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
@@ -5788,7 +5791,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="270">
+    <row r="5" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -5802,7 +5805,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="75">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
@@ -5816,7 +5819,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="120">
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -5830,7 +5833,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="135">
+    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -5861,7 +5864,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
@@ -5871,7 +5874,7 @@
     <col min="6" max="6" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5891,7 +5894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="135">
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
@@ -5907,7 +5910,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="90">
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>72</v>
       </c>
@@ -5925,7 +5928,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>76</v>
       </c>
@@ -5941,7 +5944,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>80</v>
       </c>
@@ -5968,11 +5971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7130233-6AF6-4BA4-B9BA-0FE2F6025445}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -5982,7 +5985,7 @@
     <col min="6" max="6" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
@@ -6020,7 +6023,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="225">
+    <row r="3" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>88</v>
       </c>
@@ -6034,7 +6037,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>91</v>
       </c>
@@ -6046,7 +6049,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="225">
+    <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>93</v>
       </c>
@@ -6058,7 +6061,7 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="255">
+    <row r="6" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>95</v>
       </c>
@@ -6070,7 +6073,7 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="105">
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>97</v>
       </c>
@@ -6082,7 +6085,7 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="90">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>99</v>
       </c>
@@ -6094,7 +6097,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" ht="120">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>101</v>
       </c>
@@ -6121,11 +6124,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E836C-434F-4798-8C29-1F49AD809155}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
@@ -6135,7 +6138,7 @@
     <col min="6" max="6" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>104</v>
       </c>
@@ -6167,7 +6170,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="330">
+    <row r="3" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -6181,7 +6184,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="150">
+    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>109</v>
       </c>
@@ -6199,7 +6202,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="150">
+    <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>114</v>
       </c>
@@ -6217,7 +6220,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="165">
+    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>118</v>
       </c>
@@ -6235,7 +6238,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="240">
+    <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>122</v>
       </c>
@@ -6248,10 +6251,12 @@
       <c r="D7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
@@ -6263,7 +6268,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="87.75" customHeight="1">
+    <row r="9" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>128</v>
       </c>
@@ -6277,7 +6282,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="104.25" customHeight="1">
+    <row r="10" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>131</v>
       </c>
@@ -6291,7 +6296,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="115.5" customHeight="1">
+    <row r="11" spans="1:6" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>134</v>
       </c>
@@ -6305,7 +6310,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="96.75" customHeight="1">
+    <row r="12" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>137</v>
       </c>
@@ -6319,7 +6324,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="105">
+    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>140</v>
       </c>
@@ -6333,7 +6338,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="198" customHeight="1">
+    <row r="14" spans="1:6" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>143</v>
       </c>
@@ -6343,7 +6348,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="120">
+    <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>144</v>
       </c>
@@ -6357,7 +6362,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="90">
+    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>147</v>
       </c>
@@ -6371,7 +6376,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="45">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>150</v>
       </c>
@@ -6383,7 +6388,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="150">
+    <row r="18" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>152</v>
       </c>
@@ -6412,7 +6417,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="76" customWidth="1"/>
@@ -6422,7 +6427,7 @@
     <col min="6" max="6" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6442,7 +6447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="165">
+    <row r="2" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
@@ -6460,7 +6465,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="90">
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
@@ -6474,7 +6479,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>161</v>
       </c>
@@ -6486,7 +6491,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>163</v>
       </c>
@@ -6498,7 +6503,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -6510,7 +6515,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>167</v>
       </c>
@@ -6522,7 +6527,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>169</v>
       </c>
@@ -6536,7 +6541,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -6550,7 +6555,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -6562,7 +6567,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>177</v>
       </c>
@@ -6574,7 +6579,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="225">
+    <row r="12" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>179</v>
       </c>
@@ -6588,7 +6593,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="165">
+    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>182</v>
       </c>
@@ -6600,7 +6605,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="108.75" customHeight="1">
+    <row r="14" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>184</v>
       </c>
@@ -6612,7 +6617,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="120">
+    <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -6630,7 +6635,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="240">
+    <row r="16" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
@@ -6659,7 +6664,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -6669,7 +6674,7 @@
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6689,7 +6694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>193</v>
       </c>
@@ -6703,7 +6708,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="210">
+    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>196</v>
       </c>
@@ -6721,7 +6726,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="210">
+    <row r="4" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
@@ -6738,7 +6743,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="195">
+    <row r="5" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>206</v>
       </c>
@@ -6771,7 +6776,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
@@ -6781,7 +6786,7 @@
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6801,7 +6806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="300">
+    <row r="2" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>210</v>
       </c>
@@ -6817,7 +6822,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="210">
+    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
@@ -6831,7 +6836,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="390">
+    <row r="4" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>217</v>
       </c>
@@ -6858,11 +6863,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6e149233-bc5e-4d60-a409-cb2d210f3947" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7093,20 +7099,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6e149233-bc5e-4d60-a409-cb2d210f3947" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20058456-57BA-4B0C-8896-BC01F9C02CE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645C5005-C549-4346-BA2F-9C9A1FB13CB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7131,9 +7134,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645C5005-C549-4346-BA2F-9C9A1FB13CB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20058456-57BA-4B0C-8896-BC01F9C02CE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
+++ b/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E3B81-E01E-41E8-B1B7-54025D3D1C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C8EB38-1CFB-4543-8732-CAD115B130C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="592" firstSheet="2" activeTab="5" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="592" firstSheet="5" activeTab="8" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Systems and Abstraction" sheetId="1" r:id="rId1"/>
@@ -1406,9 +1406,19 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">    Metadata Management: The master server maintains metadata, which includes information such as file-to-chunk mappings, locations of replicas, and other essential details about the file system. When a client needs to read or write data, it first contacts the master server to obtain metadata related to the operation.
+    Chunk Location Lookup: Upon receiving a request from a client, the master server provides the client with the locations (IP addresses) of the chunk servers storing the relevant data chunks for the requested file. The client then communicates directly with these chunk servers to access the data.
+    Coordination and Control: The master server coordinates various operations within the GFS cluster, such as file creation, deletion, and replication. It ensures data consistency and integrity by managing the placement and replication of data chunks across chunk servers.
+    Fault Tolerance and Recovery: The master server plays a crucial role in fault tolerance and recovery mechanisms within GFS. It monitors the health and availability of chunk servers, detects failures, and initiates recovery processes such as chunk migration or replication to maintain data availability and system reliability.
+    Metadata Caching: To improve performance and reduce latency, clients may cache metadata obtained from the master server locally. This caching mechanism allows clients to retrieve metadata more quickly for subsequent operations without needing to contact the master server repeatedly.</t>
+  </si>
+  <si>
+    <t>Examples: chatbots</t>
+  </si>
+  <si>
     <t>Example of how the data changes from stage to stage:
 pages = [(1, "abc"), (2, "bcd"), (3, "acdef")]
-map stage::
+map stage:
 [(1, a), (1, b), (1, c),
 (2, b), (2, c), (2, d),
 (3, a), (3, c), (3, d), (3, e), (3, f)]
@@ -1420,16 +1430,6 @@
 e: [3],
 f: [3]
 ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Metadata Management: The master server maintains metadata, which includes information such as file-to-chunk mappings, locations of replicas, and other essential details about the file system. When a client needs to read or write data, it first contacts the master server to obtain metadata related to the operation.
-    Chunk Location Lookup: Upon receiving a request from a client, the master server provides the client with the locations (IP addresses) of the chunk servers storing the relevant data chunks for the requested file. The client then communicates directly with these chunk servers to access the data.
-    Coordination and Control: The master server coordinates various operations within the GFS cluster, such as file creation, deletion, and replication. It ensures data consistency and integrity by managing the placement and replication of data chunks across chunk servers.
-    Fault Tolerance and Recovery: The master server plays a crucial role in fault tolerance and recovery mechanisms within GFS. It monitors the health and availability of chunk servers, detects failures, and initiates recovery processes such as chunk migration or replication to maintain data availability and system reliability.
-    Metadata Caching: To improve performance and reduce latency, clients may cache metadata obtained from the master server locally. This caching mechanism allows clients to retrieve metadata more quickly for subsequent operations without needing to contact the master server repeatedly.</t>
-  </si>
-  <si>
-    <t>Examples: chatbots</t>
   </si>
 </sst>
 </file>
@@ -4367,7 +4367,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>493057</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2644588</xdr:rowOff>
+      <xdr:rowOff>2473138</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5215,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565796D7-D35E-40EB-B305-EFC8618B15BF}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A5" zoomScale="121" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5286,7 +5286,7 @@
         <v>229</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>230</v>
@@ -5303,7 +5303,7 @@
         <v>233</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>234</v>
@@ -5338,8 +5338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE19E9E-A98E-4BE2-B916-3E13EA42D882}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5417,8 +5417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378791C9-6AAD-496A-BABA-0F79C9FED179}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A2" zoomScale="103" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5478,7 +5478,7 @@
         <v>251</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>252</v>
@@ -6124,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E836C-434F-4798-8C29-1F49AD809155}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6252,7 +6252,7 @@
         <v>125</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -6413,8 +6413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC361287-B3FA-4754-8F77-810CB15EE32E}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6660,8 +6660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69C5C4-3650-49F2-8C93-570D3130646B}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6772,7 +6772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336B275-13AB-4CD2-BE95-FCA1A58FF0F9}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
+++ b/COMP3370 - Computing and the Cloud Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C8EB38-1CFB-4543-8732-CAD115B130C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F0F00-75BC-485B-9A0C-BD469BB31E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="592" firstSheet="5" activeTab="8" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
+    <workbookView xWindow="28680" yWindow="-4515" windowWidth="29040" windowHeight="15720" tabRatio="592" firstSheet="5" activeTab="7" xr2:uid="{0D70E819-E99E-4390-80DB-C4E754893F13}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Systems and Abstraction" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="285">
   <si>
     <t>Item</t>
   </si>
@@ -1430,6 +1430,83 @@
 e: [3],
 f: [3]
 ]</t>
+  </si>
+  <si>
+    <t>Application Layer</t>
+  </si>
+  <si>
+    <t>Session Layer</t>
+  </si>
+  <si>
+    <t>Presentation Layer</t>
+  </si>
+  <si>
+    <t>Transport Layer</t>
+  </si>
+  <si>
+    <t>Network Layer</t>
+  </si>
+  <si>
+    <t>Data Link Layer</t>
+  </si>
+  <si>
+    <t>Physical Layer</t>
+  </si>
+  <si>
+    <t>Transmits raw bit streams over a physical medium.
+E.g. Ethernet cables, fiber optics, and radio frequencies.</t>
+  </si>
+  <si>
+    <t>Ensures reliable data transfer across a physical link by detecting and possibly correcting errors.
+E.g. Ethernet (IEEE 802.3), Wi-Fi (IEEE 802.11), and MAC addresses.</t>
+  </si>
+  <si>
+    <t>Determines the best physical path for data to reach its destination.
+E.g. IP (Internet Protocol), routers, and ICMP (Internet Control Message Protocol).</t>
+  </si>
+  <si>
+    <t>Provides reliable data transfer services to the upper layers, ensuring complete data transfer.
+E.g. TCP (Transmission Control Protocol), UDP (User Datagram Protocol), and port numbers.</t>
+  </si>
+  <si>
+    <t>Manages sessions or connections between applications, handling setup, maintenance, and termination.
+NetBIOS (Network Basic Input/Output System), RPC (Remote Procedure Call), and PPTP (Point-to-Point Tunneling Protocol).</t>
+  </si>
+  <si>
+    <t>Translates data between the application layer and the network, ensuring data is in a usable format, often handling encryption and compression.
+SSL/TLS (Secure Sockets Layer/Transport Layer Security), JPEG, and ASCII (American Standard Code for Information Interchange).</t>
+  </si>
+  <si>
+    <t>Provides network services directly to end-user applications and ensures that data is available in a comprehensible format.
+HTTP (HyperText Transfer Protocol), FTP (File Transfer Protocol), SMTP (Simple Mail Transfer Protocol), and DNS (Domain Name System).</t>
+  </si>
+  <si>
+    <t>Function: This layer deals with the physical connection to the network, including the hardware elements like cables, switches, and network interface cards.
+Details: It defines the electrical, mechanical, and procedural standards for activating, maintaining, and deactivating the physical link between end systems. It transmits raw bits over a physical medium, dealing with the electrical signals, light pulses, and radio waves used to transfer data.</t>
+  </si>
+  <si>
+    <t>Function: This layer provides node-to-node data transfer—a link between two directly connected nodes. It also handles error detection and correction from the physical layer.
+Details: The Data Link Layer is divided into two sublayers: Media Access Control (MAC) and Logical Link Control (LLC). MAC is responsible for controlling how devices on a network gain access to a medium and permission to transmit data, while LLC provides flow control and error management over the physical link.</t>
+  </si>
+  <si>
+    <t>Function: This layer is responsible for packet forwarding, including routing through intermediate routers, to ensure data reaches its final destination.
+Details: It handles the logical addressing of devices using IP addresses and performs routing and forwarding functions to manage traffic on the network. It is also responsible for fragmentation and reassembly of packets, and error handling.</t>
+  </si>
+  <si>
+    <t>Function: This layer provides reliable data transfer services to the upper layers and ensures complete data transfer.
+Details: It segments and reassembles data into a data stream and provides error detection and recovery. It includes flow control mechanisms to prevent network congestion and can establish, maintain, and terminate connections. TCP and UDP are key protocols in this layer.</t>
+  </si>
+  <si>
+    <t>Function: This layer manages sessions or connections between applications.
+Details: It establishes, manages, and terminates connections between applications. It is responsible for session checkpointing and recovery, which means it can maintain the state of the connection and manage dialogues between computers, ensuring that data exchange is properly synchronized.</t>
+  </si>
+  <si>
+    <t>Function: This layer translates data between the application layer and the network.
+Details: It handles data formatting, encryption, and decryption, as well as data compression. It ensures that data sent by the application layer of one system can be read by the application layer of another system. It translates between different data formats and encodings (e.g., converting from EBCDIC to ASCII).</t>
+  </si>
+  <si>
+    <t>Function: This layer provides network services directly to end-user applications.
+Details: It is the closest layer to the end-user and interacts with software applications that implement a communicating component. It provides functionalities such as identifying communication partners, determining resource availability, and synchronizing communication. Common protocols at this layer include HTTP for web browsing, FTP for file transfers, SMTP for email, and DNS for domain name resolution.</t>
   </si>
 </sst>
 </file>
@@ -3601,8 +3678,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1468703</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160051</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -3641,13 +3718,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447653</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596740</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>302559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3685,14 +3762,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2200671</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1467971</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279106</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4758,8 +4835,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8EE9835D-DEFC-4D3B-A0F2-5C0E4783EE9C}" name="Table5" displayName="Table5" ref="A1:F9" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76">
-  <autoFilter ref="A1:F9" xr:uid="{8EE9835D-DEFC-4D3B-A0F2-5C0E4783EE9C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8EE9835D-DEFC-4D3B-A0F2-5C0E4783EE9C}" name="Table5" displayName="Table5" ref="A1:F16" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76">
+  <autoFilter ref="A1:F16" xr:uid="{8EE9835D-DEFC-4D3B-A0F2-5C0E4783EE9C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B7071CD1-AE1B-4ABA-A410-131F3D8C2D32}" name="Item" dataDxfId="75"/>
     <tableColumn id="2" xr3:uid="{B4BBF1D5-AA3D-49CE-B266-E4D867931A5A}" name="Definition" dataDxfId="74"/>
@@ -5969,20 +6046,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7130233-6AF6-4BA4-B9BA-0FE2F6025445}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6037,79 +6114,177 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>92</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F16" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6124,8 +6299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E836C-434F-4798-8C29-1F49AD809155}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A5" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6413,7 +6588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC361287-B3FA-4754-8F77-810CB15EE32E}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6660,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69C5C4-3650-49F2-8C93-570D3130646B}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6772,7 +6947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336B275-13AB-4CD2-BE95-FCA1A58FF0F9}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -6863,12 +7038,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6e149233-bc5e-4d60-a409-cb2d210f3947" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7099,17 +7273,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6e149233-bc5e-4d60-a409-cb2d210f3947" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645C5005-C549-4346-BA2F-9C9A1FB13CB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20058456-57BA-4B0C-8896-BC01F9C02CE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7134,11 +7311,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20058456-57BA-4B0C-8896-BC01F9C02CE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645C5005-C549-4346-BA2F-9C9A1FB13CB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e149233-bc5e-4d60-a409-cb2d210f3947"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>